--- a/medicine/Mort/Panthéon_de_Saburtalo/Panthéon_de_Saburtalo.xlsx
+++ b/medicine/Mort/Panthéon_de_Saburtalo/Panthéon_de_Saburtalo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Saburtalo</t>
+          <t>Panthéon_de_Saburtalo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Panthéon de Saburtalo (Georgien : საბურთალოს საზოგადო მოღვაწეთა პანთეონი) est un cimetière de Tbilissi, en Géorgie, où certaines personnalités de la culture et des sciences sont inhumées mais également de nombreux sportifs et notamment d'anciens footballeurs.
 Ce panthéon a été fondé durant les années 1970. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Saburtalo</t>
+          <t>Panthéon_de_Saburtalo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités enterrées dans ce cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Leila Abashidze
 Kakhi Asatiani
